--- a/biology/Botanique/Persoonia_confertiflora/Persoonia_confertiflora.xlsx
+++ b/biology/Botanique/Persoonia_confertiflora/Persoonia_confertiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Persoonia confertiflora est une espèce de buisson de la famille des  Proteaceae originaire de l'est de l'Australie[2]. Il peut atteindre 1,5 m de haut et a des feuilles elliptiques ou lancéolée. Le fleurs sont jaunes avec quatre pétales incurvés. Elles laissent ensuite leur place à des fruits charnus vert qui virent ensuite au violet. Ils mesurent 18 mm de long pour 14 mm de large[2].
-L'espèce est pour la première fois décrite par George Bentham en 1870 dans le cinquième volume de Flora Australis. On la trouve dans le sud-est de la Nouvelle-Galles du Sud et dans l'est de l'Australie dans des forêts côtières ou dans des zones montagneuses[3],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Persoonia confertiflora est une espèce de buisson de la famille des  Proteaceae originaire de l'est de l'Australie. Il peut atteindre 1,5 m de haut et a des feuilles elliptiques ou lancéolée. Le fleurs sont jaunes avec quatre pétales incurvés. Elles laissent ensuite leur place à des fruits charnus vert qui virent ensuite au violet. Ils mesurent 18 mm de long pour 14 mm de large.
+L'espèce est pour la première fois décrite par George Bentham en 1870 dans le cinquième volume de Flora Australis. On la trouve dans le sud-est de la Nouvelle-Galles du Sud et dans l'est de l'Australie dans des forêts côtières ou dans des zones montagneuses,.
 </t>
         </is>
       </c>
